--- a/trunk/SRS/Trazabilidad/SRS[Alimnova]TrazabilidadRequerimientosV1.4.0.xlsx
+++ b/trunk/SRS/Trazabilidad/SRS[Alimnova]TrazabilidadRequerimientosV1.4.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15405" windowHeight="3420" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="8745" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADO DEL REQ" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4552" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="252">
   <si>
     <t>ID</t>
   </si>
@@ -770,6 +770,15 @@
   <si>
     <t>TableroPrincipal</t>
   </si>
+  <si>
+    <t>Com. Cliente</t>
+  </si>
+  <si>
+    <t>Com. Servidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N40        </t>
+  </si>
 </sst>
 </file>
 
@@ -1413,7 +1422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1601,9 +1610,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1777,22 +1783,13 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1801,10 +1798,16 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1816,14 +1819,41 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2147,88 +2177,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="86" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
     </row>
     <row r="2" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="87" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="59"/>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="91"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="90"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="100" t="s">
+      <c r="A3" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="99" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="85"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="84"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="101"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="65" t="s">
         <v>213</v>
       </c>
@@ -8813,28 +8843,28 @@
       <c r="T125" s="53"/>
     </row>
     <row r="126" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="98" t="s">
+      <c r="A126" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="99"/>
+      <c r="B126" s="98"/>
       <c r="C126" s="64">
         <f>SUM(C5:C125)</f>
         <v>12700</v>
       </c>
-      <c r="D126" s="78" t="s">
+      <c r="D126" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="E126" s="79"/>
-      <c r="F126" s="80"/>
+      <c r="E126" s="78"/>
+      <c r="F126" s="79"/>
       <c r="G126" s="49">
         <f>SUM(G5:G125)</f>
         <v>4380</v>
       </c>
-      <c r="H126" s="102" t="s">
+      <c r="H126" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="I126" s="103"/>
-      <c r="J126" s="77">
+      <c r="I126" s="102"/>
+      <c r="J126" s="76">
         <f>(G126*100)/C126</f>
         <v>34.488188976377955</v>
       </c>
@@ -8850,33 +8880,33 @@
       <c r="T126" s="53"/>
     </row>
     <row r="127" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A127" s="81" t="s">
+      <c r="A127" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
-      <c r="D127" s="83" t="s">
+      <c r="D127" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="E127" s="84"/>
-      <c r="F127" s="84"/>
-      <c r="G127" s="84"/>
-      <c r="H127" s="84"/>
-      <c r="I127" s="84"/>
-      <c r="J127" s="84"/>
-      <c r="K127" s="84"/>
-      <c r="L127" s="84"/>
-      <c r="M127" s="84"/>
-      <c r="N127" s="84"/>
-      <c r="O127" s="84"/>
-      <c r="P127" s="84"/>
-      <c r="Q127" s="84"/>
-      <c r="R127" s="84"/>
-      <c r="S127" s="84"/>
-      <c r="T127" s="85"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="83"/>
+      <c r="G127" s="83"/>
+      <c r="H127" s="83"/>
+      <c r="I127" s="83"/>
+      <c r="J127" s="83"/>
+      <c r="K127" s="83"/>
+      <c r="L127" s="83"/>
+      <c r="M127" s="83"/>
+      <c r="N127" s="83"/>
+      <c r="O127" s="83"/>
+      <c r="P127" s="83"/>
+      <c r="Q127" s="83"/>
+      <c r="R127" s="83"/>
+      <c r="S127" s="83"/>
+      <c r="T127" s="84"/>
     </row>
     <row r="128" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="82"/>
+      <c r="A128" s="81"/>
       <c r="B128" s="60" t="s">
         <v>214</v>
       </c>
@@ -11097,33 +11127,33 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" thickTop="1" thickBot="1">
       <c r="A1" s="29"/>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="106"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -11135,7 +11165,7 @@
     </row>
     <row r="2" spans="1:32" ht="29.25" thickBot="1">
       <c r="A2" s="29"/>
-      <c r="B2" s="109"/>
+      <c r="B2" s="108"/>
       <c r="C2" s="22" t="s">
         <v>132</v>
       </c>
@@ -11155,15 +11185,15 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -11175,7 +11205,7 @@
     </row>
     <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="29"/>
-      <c r="B3" s="109"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="11" t="s">
         <v>163</v>
       </c>
@@ -11244,7 +11274,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -11274,7 +11304,7 @@
       <c r="X4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="111"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -11346,7 +11376,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="111"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -11418,7 +11448,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="111"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -11490,7 +11520,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="111"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -11562,7 +11592,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -11634,7 +11664,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="111"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -11706,7 +11736,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="111"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -11778,7 +11808,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="111"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
@@ -11850,7 +11880,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="111"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
@@ -11878,7 +11908,7 @@
       <c r="X13" s="34"/>
     </row>
     <row r="14" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="111"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -11950,7 +11980,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="111"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
@@ -12022,7 +12052,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="111"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
@@ -12094,7 +12124,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="111"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
@@ -12166,7 +12196,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="111"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
@@ -12238,7 +12268,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="111"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -12310,7 +12340,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="111"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
@@ -12382,7 +12412,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="111"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
@@ -12454,7 +12484,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="111"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
@@ -12526,7 +12556,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="111"/>
+      <c r="A23" s="110"/>
       <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
@@ -12554,7 +12584,7 @@
       <c r="X23" s="34"/>
     </row>
     <row r="24" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="111"/>
+      <c r="A24" s="110"/>
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
@@ -12626,7 +12656,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="111"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
@@ -12698,7 +12728,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="111"/>
+      <c r="A26" s="110"/>
       <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
@@ -12726,7 +12756,7 @@
       <c r="X26" s="34"/>
     </row>
     <row r="27" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="111"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
@@ -12798,7 +12828,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="111"/>
+      <c r="A28" s="110"/>
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
@@ -12870,7 +12900,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="111"/>
+      <c r="A29" s="110"/>
       <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
@@ -12942,7 +12972,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="111"/>
+      <c r="A30" s="110"/>
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
@@ -13014,7 +13044,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="111"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
@@ -13086,7 +13116,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="111"/>
+      <c r="A32" s="110"/>
       <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
@@ -13158,7 +13188,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="111"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
@@ -13230,7 +13260,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="111"/>
+      <c r="A34" s="110"/>
       <c r="B34" s="4" t="s">
         <v>41</v>
       </c>
@@ -13302,7 +13332,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="111"/>
+      <c r="A35" s="110"/>
       <c r="B35" s="4" t="s">
         <v>42</v>
       </c>
@@ -13374,7 +13404,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="111"/>
+      <c r="A36" s="110"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -13446,7 +13476,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="111"/>
+      <c r="A37" s="110"/>
       <c r="B37" s="4" t="s">
         <v>44</v>
       </c>
@@ -13518,7 +13548,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="111"/>
+      <c r="A38" s="110"/>
       <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
@@ -13590,7 +13620,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="111"/>
+      <c r="A39" s="110"/>
       <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
@@ -13662,7 +13692,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="111"/>
+      <c r="A40" s="110"/>
       <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
@@ -13734,7 +13764,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="111"/>
+      <c r="A41" s="110"/>
       <c r="B41" s="4" t="s">
         <v>38</v>
       </c>
@@ -13806,7 +13836,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="111"/>
+      <c r="A42" s="110"/>
       <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
@@ -13878,7 +13908,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="111"/>
+      <c r="A43" s="110"/>
       <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
@@ -13906,7 +13936,7 @@
       <c r="X43" s="40"/>
     </row>
     <row r="44" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="111"/>
+      <c r="A44" s="110"/>
       <c r="B44" s="4" t="s">
         <v>51</v>
       </c>
@@ -13978,7 +14008,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="111"/>
+      <c r="A45" s="110"/>
       <c r="B45" s="4" t="s">
         <v>52</v>
       </c>
@@ -14050,7 +14080,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="111"/>
+      <c r="A46" s="110"/>
       <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
@@ -14122,7 +14152,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="111"/>
+      <c r="A47" s="110"/>
       <c r="B47" s="4" t="s">
         <v>54</v>
       </c>
@@ -14194,7 +14224,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="111"/>
+      <c r="A48" s="110"/>
       <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
@@ -14222,7 +14252,7 @@
       <c r="X48" s="31"/>
     </row>
     <row r="49" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="111"/>
+      <c r="A49" s="110"/>
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
@@ -14294,7 +14324,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="111"/>
+      <c r="A50" s="110"/>
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
@@ -14366,7 +14396,7 @@
       </c>
     </row>
     <row r="51" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="111"/>
+      <c r="A51" s="110"/>
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
@@ -14438,7 +14468,7 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="111"/>
+      <c r="A52" s="110"/>
       <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
@@ -14510,7 +14540,7 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="111"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="4" t="s">
         <v>60</v>
       </c>
@@ -14582,7 +14612,7 @@
       </c>
     </row>
     <row r="54" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="111"/>
+      <c r="A54" s="110"/>
       <c r="B54" s="4" t="s">
         <v>61</v>
       </c>
@@ -14654,7 +14684,7 @@
       </c>
     </row>
     <row r="55" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="111"/>
+      <c r="A55" s="110"/>
       <c r="B55" s="4" t="s">
         <v>62</v>
       </c>
@@ -14682,7 +14712,7 @@
       <c r="X55" s="31"/>
     </row>
     <row r="56" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="111"/>
+      <c r="A56" s="110"/>
       <c r="B56" s="4" t="s">
         <v>63</v>
       </c>
@@ -14754,7 +14784,7 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="111"/>
+      <c r="A57" s="110"/>
       <c r="B57" s="4" t="s">
         <v>64</v>
       </c>
@@ -14826,7 +14856,7 @@
       </c>
     </row>
     <row r="58" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="111"/>
+      <c r="A58" s="110"/>
       <c r="B58" s="4" t="s">
         <v>65</v>
       </c>
@@ -14898,7 +14928,7 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="111"/>
+      <c r="A59" s="110"/>
       <c r="B59" s="4" t="s">
         <v>66</v>
       </c>
@@ -14970,7 +15000,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="111"/>
+      <c r="A60" s="110"/>
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
@@ -15042,7 +15072,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="111"/>
+      <c r="A61" s="110"/>
       <c r="B61" s="4" t="s">
         <v>68</v>
       </c>
@@ -15114,7 +15144,7 @@
       </c>
     </row>
     <row r="62" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="111"/>
+      <c r="A62" s="110"/>
       <c r="B62" s="4" t="s">
         <v>69</v>
       </c>
@@ -15142,7 +15172,7 @@
       <c r="X62" s="31"/>
     </row>
     <row r="63" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="111"/>
+      <c r="A63" s="110"/>
       <c r="B63" s="4" t="s">
         <v>70</v>
       </c>
@@ -15170,7 +15200,7 @@
       <c r="X63" s="31"/>
     </row>
     <row r="64" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="111"/>
+      <c r="A64" s="110"/>
       <c r="B64" s="4" t="s">
         <v>31</v>
       </c>
@@ -15242,7 +15272,7 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="111"/>
+      <c r="A65" s="110"/>
       <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
@@ -15314,7 +15344,7 @@
       </c>
     </row>
     <row r="66" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="111"/>
+      <c r="A66" s="110"/>
       <c r="B66" s="4" t="s">
         <v>73</v>
       </c>
@@ -15386,7 +15416,7 @@
       </c>
     </row>
     <row r="67" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="111"/>
+      <c r="A67" s="110"/>
       <c r="B67" s="4" t="s">
         <v>74</v>
       </c>
@@ -15458,7 +15488,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="111"/>
+      <c r="A68" s="110"/>
       <c r="B68" s="4" t="s">
         <v>75</v>
       </c>
@@ -15530,7 +15560,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="111"/>
+      <c r="A69" s="110"/>
       <c r="B69" s="5" t="s">
         <v>76</v>
       </c>
@@ -15602,7 +15632,7 @@
       </c>
     </row>
     <row r="70" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="111"/>
+      <c r="A70" s="110"/>
       <c r="B70" s="5" t="s">
         <v>77</v>
       </c>
@@ -15674,7 +15704,7 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="111"/>
+      <c r="A71" s="110"/>
       <c r="B71" s="5" t="s">
         <v>78</v>
       </c>
@@ -15706,7 +15736,7 @@
       <c r="X71" s="32"/>
     </row>
     <row r="72" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="111"/>
+      <c r="A72" s="110"/>
       <c r="B72" s="5" t="s">
         <v>79</v>
       </c>
@@ -15738,7 +15768,7 @@
       <c r="X72" s="32"/>
     </row>
     <row r="73" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="111"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="5" t="s">
         <v>80</v>
       </c>
@@ -15770,7 +15800,7 @@
       <c r="X73" s="32"/>
     </row>
     <row r="74" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="111"/>
+      <c r="A74" s="110"/>
       <c r="B74" s="5" t="s">
         <v>81</v>
       </c>
@@ -15802,7 +15832,7 @@
       <c r="X74" s="32"/>
     </row>
     <row r="75" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="111"/>
+      <c r="A75" s="110"/>
       <c r="B75" s="5" t="s">
         <v>82</v>
       </c>
@@ -15830,7 +15860,7 @@
       <c r="X75" s="31"/>
     </row>
     <row r="76" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="111"/>
+      <c r="A76" s="110"/>
       <c r="B76" s="5" t="s">
         <v>83</v>
       </c>
@@ -15858,7 +15888,7 @@
       <c r="X76" s="31"/>
     </row>
     <row r="77" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="111"/>
+      <c r="A77" s="110"/>
       <c r="B77" s="5" t="s">
         <v>84</v>
       </c>
@@ -15886,7 +15916,7 @@
       <c r="X77" s="31"/>
     </row>
     <row r="78" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="111"/>
+      <c r="A78" s="110"/>
       <c r="B78" s="5" t="s">
         <v>85</v>
       </c>
@@ -15914,7 +15944,7 @@
       <c r="X78" s="31"/>
     </row>
     <row r="79" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="111"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="5" t="s">
         <v>86</v>
       </c>
@@ -15942,7 +15972,7 @@
       <c r="X79" s="31"/>
     </row>
     <row r="80" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="111"/>
+      <c r="A80" s="110"/>
       <c r="B80" s="5" t="s">
         <v>87</v>
       </c>
@@ -15972,7 +16002,7 @@
       <c r="X80" s="32"/>
     </row>
     <row r="81" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="111"/>
+      <c r="A81" s="110"/>
       <c r="B81" s="5" t="s">
         <v>202</v>
       </c>
@@ -16002,7 +16032,7 @@
       <c r="X81" s="32"/>
     </row>
     <row r="82" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="111"/>
+      <c r="A82" s="110"/>
       <c r="B82" s="5" t="s">
         <v>89</v>
       </c>
@@ -16034,7 +16064,7 @@
       <c r="X82" s="32"/>
     </row>
     <row r="83" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="111"/>
+      <c r="A83" s="110"/>
       <c r="B83" s="5" t="s">
         <v>90</v>
       </c>
@@ -16064,7 +16094,7 @@
       <c r="X83" s="32"/>
     </row>
     <row r="84" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="111"/>
+      <c r="A84" s="110"/>
       <c r="B84" s="5" t="s">
         <v>91</v>
       </c>
@@ -16094,7 +16124,7 @@
       <c r="X84" s="32"/>
     </row>
     <row r="85" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="111"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="5" t="s">
         <v>92</v>
       </c>
@@ -16126,7 +16156,7 @@
       <c r="X85" s="32"/>
     </row>
     <row r="86" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="111"/>
+      <c r="A86" s="110"/>
       <c r="B86" s="5" t="s">
         <v>93</v>
       </c>
@@ -16154,7 +16184,7 @@
       <c r="X86" s="31"/>
     </row>
     <row r="87" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="111"/>
+      <c r="A87" s="110"/>
       <c r="B87" s="5" t="s">
         <v>94</v>
       </c>
@@ -16186,7 +16216,7 @@
       <c r="X87" s="32"/>
     </row>
     <row r="88" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="111"/>
+      <c r="A88" s="110"/>
       <c r="B88" s="5" t="s">
         <v>95</v>
       </c>
@@ -16218,7 +16248,7 @@
       <c r="X88" s="32"/>
     </row>
     <row r="89" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="111"/>
+      <c r="A89" s="110"/>
       <c r="B89" s="5" t="s">
         <v>96</v>
       </c>
@@ -16254,7 +16284,7 @@
       <c r="X89" s="32"/>
     </row>
     <row r="90" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="111"/>
+      <c r="A90" s="110"/>
       <c r="B90" s="5" t="s">
         <v>97</v>
       </c>
@@ -16282,7 +16312,7 @@
       <c r="X90" s="31"/>
     </row>
     <row r="91" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="111"/>
+      <c r="A91" s="110"/>
       <c r="B91" s="5" t="s">
         <v>98</v>
       </c>
@@ -16354,7 +16384,7 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="111"/>
+      <c r="A92" s="110"/>
       <c r="B92" s="5" t="s">
         <v>99</v>
       </c>
@@ -16426,7 +16456,7 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="111"/>
+      <c r="A93" s="110"/>
       <c r="B93" s="5" t="s">
         <v>100</v>
       </c>
@@ -16498,7 +16528,7 @@
       </c>
     </row>
     <row r="94" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="111"/>
+      <c r="A94" s="110"/>
       <c r="B94" s="5" t="s">
         <v>101</v>
       </c>
@@ -16570,7 +16600,7 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="111"/>
+      <c r="A95" s="110"/>
       <c r="B95" s="5" t="s">
         <v>102</v>
       </c>
@@ -16642,7 +16672,7 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="111"/>
+      <c r="A96" s="110"/>
       <c r="B96" s="5" t="s">
         <v>103</v>
       </c>
@@ -16714,7 +16744,7 @@
       </c>
     </row>
     <row r="97" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="111"/>
+      <c r="A97" s="110"/>
       <c r="B97" s="5" t="s">
         <v>104</v>
       </c>
@@ -16786,7 +16816,7 @@
       </c>
     </row>
     <row r="98" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="111"/>
+      <c r="A98" s="110"/>
       <c r="B98" s="5" t="s">
         <v>105</v>
       </c>
@@ -16858,7 +16888,7 @@
       </c>
     </row>
     <row r="99" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="111"/>
+      <c r="A99" s="110"/>
       <c r="B99" s="5" t="s">
         <v>106</v>
       </c>
@@ -16930,7 +16960,7 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="111"/>
+      <c r="A100" s="110"/>
       <c r="B100" s="5" t="s">
         <v>107</v>
       </c>
@@ -17002,7 +17032,7 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="111"/>
+      <c r="A101" s="110"/>
       <c r="B101" s="5" t="s">
         <v>108</v>
       </c>
@@ -17074,7 +17104,7 @@
       </c>
     </row>
     <row r="102" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="111"/>
+      <c r="A102" s="110"/>
       <c r="B102" s="5" t="s">
         <v>109</v>
       </c>
@@ -17146,7 +17176,7 @@
       </c>
     </row>
     <row r="103" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="111"/>
+      <c r="A103" s="110"/>
       <c r="B103" s="5" t="s">
         <v>110</v>
       </c>
@@ -17218,7 +17248,7 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="111"/>
+      <c r="A104" s="110"/>
       <c r="B104" s="5" t="s">
         <v>111</v>
       </c>
@@ -17290,7 +17320,7 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="111"/>
+      <c r="A105" s="110"/>
       <c r="B105" s="5" t="s">
         <v>112</v>
       </c>
@@ -17318,7 +17348,7 @@
       <c r="X105" s="31"/>
     </row>
     <row r="106" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="111"/>
+      <c r="A106" s="110"/>
       <c r="B106" s="5" t="s">
         <v>113</v>
       </c>
@@ -17390,7 +17420,7 @@
       </c>
     </row>
     <row r="107" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="111"/>
+      <c r="A107" s="110"/>
       <c r="B107" s="5" t="s">
         <v>114</v>
       </c>
@@ -17418,7 +17448,7 @@
       <c r="X107" s="31"/>
     </row>
     <row r="108" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="111"/>
+      <c r="A108" s="110"/>
       <c r="B108" s="5" t="s">
         <v>115</v>
       </c>
@@ -17446,7 +17476,7 @@
       <c r="X108" s="31"/>
     </row>
     <row r="109" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="111"/>
+      <c r="A109" s="110"/>
       <c r="B109" s="5" t="s">
         <v>116</v>
       </c>
@@ -17474,7 +17504,7 @@
       <c r="X109" s="31"/>
     </row>
     <row r="110" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="111"/>
+      <c r="A110" s="110"/>
       <c r="B110" s="5" t="s">
         <v>117</v>
       </c>
@@ -17502,7 +17532,7 @@
       <c r="X110" s="31"/>
     </row>
     <row r="111" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="111"/>
+      <c r="A111" s="110"/>
       <c r="B111" s="5" t="s">
         <v>118</v>
       </c>
@@ -17530,7 +17560,7 @@
       <c r="X111" s="31"/>
     </row>
     <row r="112" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="111"/>
+      <c r="A112" s="110"/>
       <c r="B112" s="5" t="s">
         <v>119</v>
       </c>
@@ -17558,7 +17588,7 @@
       <c r="X112" s="31"/>
     </row>
     <row r="113" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="111"/>
+      <c r="A113" s="110"/>
       <c r="B113" s="5" t="s">
         <v>120</v>
       </c>
@@ -17586,7 +17616,7 @@
       <c r="X113" s="31"/>
     </row>
     <row r="114" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="111"/>
+      <c r="A114" s="110"/>
       <c r="B114" s="5" t="s">
         <v>121</v>
       </c>
@@ -17614,7 +17644,7 @@
       <c r="X114" s="31"/>
     </row>
     <row r="115" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="111"/>
+      <c r="A115" s="110"/>
       <c r="B115" s="5" t="s">
         <v>122</v>
       </c>
@@ -17642,7 +17672,7 @@
       <c r="X115" s="31"/>
     </row>
     <row r="116" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="111"/>
+      <c r="A116" s="110"/>
       <c r="B116" s="5" t="s">
         <v>205</v>
       </c>
@@ -17670,7 +17700,7 @@
       <c r="X116" s="31"/>
     </row>
     <row r="117" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="111"/>
+      <c r="A117" s="110"/>
       <c r="B117" s="5" t="s">
         <v>124</v>
       </c>
@@ -17698,7 +17728,7 @@
       <c r="X117" s="31"/>
     </row>
     <row r="118" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="111"/>
+      <c r="A118" s="110"/>
       <c r="B118" s="5" t="s">
         <v>125</v>
       </c>
@@ -17770,7 +17800,7 @@
       </c>
     </row>
     <row r="119" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="111"/>
+      <c r="A119" s="110"/>
       <c r="B119" s="6" t="s">
         <v>126</v>
       </c>
@@ -17798,7 +17828,7 @@
       <c r="X119" s="31"/>
     </row>
     <row r="120" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="111"/>
+      <c r="A120" s="110"/>
       <c r="B120" s="5" t="s">
         <v>127</v>
       </c>
@@ -17870,7 +17900,7 @@
       </c>
     </row>
     <row r="121" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="111"/>
+      <c r="A121" s="110"/>
       <c r="B121" s="5" t="s">
         <v>128</v>
       </c>
@@ -17942,7 +17972,7 @@
       </c>
     </row>
     <row r="122" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="111"/>
+      <c r="A122" s="110"/>
       <c r="B122" s="5" t="s">
         <v>129</v>
       </c>
@@ -17970,7 +18000,7 @@
       <c r="X122" s="31"/>
     </row>
     <row r="123" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="111"/>
+      <c r="A123" s="110"/>
       <c r="B123" s="7" t="s">
         <v>206</v>
       </c>
@@ -17998,7 +18028,7 @@
       <c r="X123" s="31"/>
     </row>
     <row r="124" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="112"/>
+      <c r="A124" s="111"/>
       <c r="B124" s="5" t="s">
         <v>131</v>
       </c>
@@ -18100,42 +18130,42 @@
     <row r="1" spans="1:123" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="117" t="s">
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="120" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="122"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="124"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
       <c r="AG1" s="36"/>
       <c r="AH1" s="36"/>
       <c r="AI1" s="36"/>
@@ -18596,7 +18626,7 @@
       </c>
     </row>
     <row r="3" spans="1:123" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="114" t="s">
         <v>177</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -18935,7 +18965,7 @@
       </c>
     </row>
     <row r="4" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="116"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="19" t="s">
         <v>136</v>
       </c>
@@ -19272,7 +19302,7 @@
       </c>
     </row>
     <row r="5" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="116"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="19" t="s">
         <v>137</v>
       </c>
@@ -19609,7 +19639,7 @@
       </c>
     </row>
     <row r="6" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="116"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="19" t="s">
         <v>138</v>
       </c>
@@ -19946,7 +19976,7 @@
       </c>
     </row>
     <row r="7" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="116"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="19" t="s">
         <v>139</v>
       </c>
@@ -20283,7 +20313,7 @@
       </c>
     </row>
     <row r="8" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="116"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="19" t="s">
         <v>140</v>
       </c>
@@ -20622,7 +20652,7 @@
       </c>
     </row>
     <row r="9" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="116"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="19" t="s">
         <v>141</v>
       </c>
@@ -20961,7 +20991,7 @@
       </c>
     </row>
     <row r="10" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="116"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="19" t="s">
         <v>142</v>
       </c>
@@ -21300,7 +21330,7 @@
       </c>
     </row>
     <row r="11" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="116"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="19" t="s">
         <v>143</v>
       </c>
@@ -21639,7 +21669,7 @@
       </c>
     </row>
     <row r="12" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="116"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="19" t="s">
         <v>145</v>
       </c>
@@ -21766,7 +21796,7 @@
       <c r="DS12" s="33"/>
     </row>
     <row r="13" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="116"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="19" t="s">
         <v>146</v>
       </c>
@@ -21893,7 +21923,7 @@
       <c r="DS13" s="33"/>
     </row>
     <row r="14" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="116"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="19" t="s">
         <v>147</v>
       </c>
@@ -22020,7 +22050,7 @@
       <c r="DS14" s="33"/>
     </row>
     <row r="15" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="116"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="19" t="s">
         <v>148</v>
       </c>
@@ -22147,7 +22177,7 @@
       <c r="DS15" s="33"/>
     </row>
     <row r="16" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="116"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="19" t="s">
         <v>149</v>
       </c>
@@ -22274,7 +22304,7 @@
       <c r="DS16" s="33"/>
     </row>
     <row r="17" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="116"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="19" t="s">
         <v>150</v>
       </c>
@@ -22401,7 +22431,7 @@
       <c r="DS17" s="33"/>
     </row>
     <row r="18" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="116"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="19" t="s">
         <v>151</v>
       </c>
@@ -22740,7 +22770,7 @@
       </c>
     </row>
     <row r="19" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="116"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="19" t="s">
         <v>152</v>
       </c>
@@ -22867,7 +22897,7 @@
       <c r="DS19" s="40"/>
     </row>
     <row r="20" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="116"/>
+      <c r="A20" s="115"/>
       <c r="B20" s="19" t="s">
         <v>153</v>
       </c>
@@ -23206,7 +23236,7 @@
       </c>
     </row>
     <row r="21" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="116"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="19" t="s">
         <v>154</v>
       </c>
@@ -23545,7 +23575,7 @@
       </c>
     </row>
     <row r="22" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="116"/>
+      <c r="A22" s="115"/>
       <c r="B22" s="19" t="s">
         <v>155</v>
       </c>
@@ -23884,7 +23914,7 @@
       </c>
     </row>
     <row r="23" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="116"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="19" t="s">
         <v>156</v>
       </c>
@@ -24223,7 +24253,7 @@
       </c>
     </row>
     <row r="24" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="116"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="19" t="s">
         <v>157</v>
       </c>
@@ -24554,7 +24584,7 @@
       <c r="DS24" s="33"/>
     </row>
     <row r="25" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="116"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="19" t="s">
         <v>158</v>
       </c>
@@ -24681,7 +24711,7 @@
       <c r="DS25" s="34"/>
     </row>
     <row r="26" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="116"/>
+      <c r="A26" s="115"/>
       <c r="B26" s="19" t="s">
         <v>159</v>
       </c>
@@ -24808,7 +24838,7 @@
       <c r="DS26" s="34"/>
     </row>
     <row r="27" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="116"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="19" t="s">
         <v>160</v>
       </c>
@@ -24935,7 +24965,7 @@
       <c r="DS27" s="34"/>
     </row>
     <row r="28" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="116"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="19" t="s">
         <v>208</v>
       </c>
@@ -25114,7 +25144,7 @@
       <c r="DS28" s="33"/>
     </row>
     <row r="29" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="116"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="19" t="s">
         <v>209</v>
       </c>
@@ -25293,7 +25323,7 @@
       <c r="DS29" s="33"/>
     </row>
     <row r="30" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="116"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="19" t="s">
         <v>210</v>
       </c>
@@ -25472,7 +25502,7 @@
       <c r="DS30" s="33"/>
     </row>
     <row r="31" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="116"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="19" t="s">
         <v>211</v>
       </c>
@@ -25651,7 +25681,7 @@
       <c r="DS31" s="33"/>
     </row>
     <row r="32" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="116"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="19" t="s">
         <v>212</v>
       </c>
@@ -25830,7 +25860,7 @@
       <c r="DS32" s="33"/>
     </row>
     <row r="33" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="116"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="19" t="s">
         <v>188</v>
       </c>
@@ -26165,7 +26195,7 @@
       </c>
     </row>
     <row r="34" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="116"/>
+      <c r="A34" s="115"/>
       <c r="B34" s="20" t="s">
         <v>189</v>
       </c>
@@ -26502,7 +26532,7 @@
       </c>
     </row>
     <row r="35" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="116"/>
+      <c r="A35" s="115"/>
       <c r="B35" s="20" t="s">
         <v>190</v>
       </c>
@@ -26841,7 +26871,7 @@
       </c>
     </row>
     <row r="36" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="116"/>
+      <c r="A36" s="115"/>
       <c r="B36" s="20" t="s">
         <v>191</v>
       </c>
@@ -27180,7 +27210,7 @@
       </c>
     </row>
     <row r="37" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="116"/>
+      <c r="A37" s="115"/>
       <c r="B37" s="20" t="s">
         <v>192</v>
       </c>
@@ -27870,72 +27900,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="34.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="126" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:55" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="75" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
       <c r="AW2" s="13"/>
       <c r="AX2" s="13"/>
       <c r="AY2" s="13"/>
@@ -27945,10 +27975,10 @@
       <c r="BC2" s="13"/>
     </row>
     <row r="3" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="66"/>
@@ -27957,8 +27987,8 @@
       <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="125"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="124"/>
+      <c r="B4" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="66"/>
@@ -27967,8 +27997,8 @@
       <c r="F4" s="66"/>
     </row>
     <row r="5" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="125"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="124"/>
+      <c r="B5" s="73" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="66"/>
@@ -27977,8 +28007,8 @@
       <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="125"/>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="124"/>
+      <c r="B6" s="73" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="66"/>
@@ -27987,8 +28017,8 @@
       <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="125"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="124"/>
+      <c r="B7" s="73" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="66"/>
@@ -27997,8 +28027,8 @@
       <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="125"/>
-      <c r="B8" s="74" t="s">
+      <c r="A8" s="124"/>
+      <c r="B8" s="73" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="66"/>
@@ -28007,11 +28037,11 @@
       <c r="F8" s="66"/>
     </row>
     <row r="9" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="125"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="75" t="s">
         <v>234</v>
       </c>
       <c r="D9" s="66"/>
@@ -28019,7 +28049,7 @@
       <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="125"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="67" t="s">
         <v>18</v>
       </c>
@@ -28029,7 +28059,7 @@
       <c r="F10" s="66"/>
     </row>
     <row r="11" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="125"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="67" t="s">
         <v>19</v>
       </c>
@@ -28039,7 +28069,7 @@
       <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="125"/>
+      <c r="A12" s="124"/>
       <c r="B12" s="67" t="s">
         <v>20</v>
       </c>
@@ -28049,7 +28079,7 @@
       <c r="F12" s="66"/>
     </row>
     <row r="13" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="125"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="67" t="s">
         <v>11</v>
       </c>
@@ -28059,7 +28089,7 @@
       <c r="F13" s="66"/>
     </row>
     <row r="14" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="125"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="67" t="s">
         <v>22</v>
       </c>
@@ -28069,7 +28099,7 @@
       <c r="F14" s="66"/>
     </row>
     <row r="15" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="125"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="67" t="s">
         <v>12</v>
       </c>
@@ -28079,7 +28109,7 @@
       <c r="F15" s="66"/>
     </row>
     <row r="16" spans="1:55" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="125"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="67" t="s">
         <v>24</v>
       </c>
@@ -28089,7 +28119,7 @@
       <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="125"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="67" t="s">
         <v>25</v>
       </c>
@@ -28099,7 +28129,7 @@
       <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="125"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="67" t="s">
         <v>26</v>
       </c>
@@ -28109,7 +28139,7 @@
       <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="125"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="67" t="s">
         <v>27</v>
       </c>
@@ -28119,7 +28149,7 @@
       <c r="F19" s="66"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="125"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="67" t="s">
         <v>28</v>
       </c>
@@ -28129,7 +28159,7 @@
       <c r="F20" s="66"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="125"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="67" t="s">
         <v>29</v>
       </c>
@@ -28139,7 +28169,7 @@
       <c r="F21" s="66"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="125"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="67" t="s">
         <v>30</v>
       </c>
@@ -28149,7 +28179,7 @@
       <c r="F22" s="66"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="125"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="67" t="s">
         <v>31</v>
       </c>
@@ -28159,7 +28189,7 @@
       <c r="F23" s="66"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="125"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="67" t="s">
         <v>32</v>
       </c>
@@ -28169,7 +28199,7 @@
       <c r="F24" s="66"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="125"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="67" t="s">
         <v>33</v>
       </c>
@@ -28179,7 +28209,7 @@
       <c r="F25" s="66"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="125"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="67" t="s">
         <v>34</v>
       </c>
@@ -28189,7 +28219,7 @@
       <c r="F26" s="66"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="125"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="67" t="s">
         <v>35</v>
       </c>
@@ -28199,7 +28229,7 @@
       <c r="F27" s="66"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="125"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="67" t="s">
         <v>36</v>
       </c>
@@ -28209,7 +28239,7 @@
       <c r="F28" s="66"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="125"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="67" t="s">
         <v>37</v>
       </c>
@@ -28219,7 +28249,7 @@
       <c r="F29" s="66"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="125"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="67" t="s">
         <v>38</v>
       </c>
@@ -28229,7 +28259,7 @@
       <c r="F30" s="66"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="125"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="67" t="s">
         <v>39</v>
       </c>
@@ -28239,7 +28269,7 @@
       <c r="F31" s="66"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="125"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="67" t="s">
         <v>40</v>
       </c>
@@ -28249,7 +28279,7 @@
       <c r="F32" s="66"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="125"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="67" t="s">
         <v>41</v>
       </c>
@@ -28259,7 +28289,7 @@
       <c r="F33" s="66"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="125"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="67" t="s">
         <v>42</v>
       </c>
@@ -28269,7 +28299,7 @@
       <c r="F34" s="66"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="125"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="67" t="s">
         <v>43</v>
       </c>
@@ -28279,7 +28309,7 @@
       <c r="F35" s="66"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="125"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="67" t="s">
         <v>44</v>
       </c>
@@ -28289,7 +28319,7 @@
       <c r="F36" s="66"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="125"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="67" t="s">
         <v>45</v>
       </c>
@@ -28299,7 +28329,7 @@
       <c r="F37" s="66"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="125"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="67" t="s">
         <v>46</v>
       </c>
@@ -28309,7 +28339,7 @@
       <c r="F38" s="66"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="125"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="67" t="s">
         <v>47</v>
       </c>
@@ -28319,7 +28349,7 @@
       <c r="F39" s="66"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="125"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="67" t="s">
         <v>38</v>
       </c>
@@ -28329,7 +28359,7 @@
       <c r="F40" s="66"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="125"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="67" t="s">
         <v>49</v>
       </c>
@@ -28339,7 +28369,7 @@
       <c r="F41" s="66"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="125"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="67" t="s">
         <v>50</v>
       </c>
@@ -28349,7 +28379,7 @@
       <c r="F42" s="66"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="125"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="67" t="s">
         <v>51</v>
       </c>
@@ -28359,7 +28389,7 @@
       <c r="F43" s="66"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="125"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="67" t="s">
         <v>52</v>
       </c>
@@ -28369,7 +28399,7 @@
       <c r="F44" s="66"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="125"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="67" t="s">
         <v>53</v>
       </c>
@@ -28379,7 +28409,7 @@
       <c r="F45" s="66"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="125"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="67" t="s">
         <v>54</v>
       </c>
@@ -28389,7 +28419,7 @@
       <c r="F46" s="66"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="125"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="67" t="s">
         <v>55</v>
       </c>
@@ -28399,7 +28429,7 @@
       <c r="F47" s="66"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="125"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="67" t="s">
         <v>56</v>
       </c>
@@ -28409,7 +28439,7 @@
       <c r="F48" s="66"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="125"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="67" t="s">
         <v>57</v>
       </c>
@@ -28419,7 +28449,7 @@
       <c r="F49" s="66"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="125"/>
+      <c r="A50" s="124"/>
       <c r="B50" s="67" t="s">
         <v>39</v>
       </c>
@@ -28429,7 +28459,7 @@
       <c r="F50" s="66"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="125"/>
+      <c r="A51" s="124"/>
       <c r="B51" s="67" t="s">
         <v>59</v>
       </c>
@@ -28439,7 +28469,7 @@
       <c r="F51" s="66"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="125"/>
+      <c r="A52" s="124"/>
       <c r="B52" s="67" t="s">
         <v>60</v>
       </c>
@@ -28449,7 +28479,7 @@
       <c r="F52" s="66"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="125"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="67" t="s">
         <v>61</v>
       </c>
@@ -28459,7 +28489,7 @@
       <c r="F53" s="66"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="125"/>
+      <c r="A54" s="124"/>
       <c r="B54" s="67" t="s">
         <v>62</v>
       </c>
@@ -28469,7 +28499,7 @@
       <c r="F54" s="66"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="125"/>
+      <c r="A55" s="124"/>
       <c r="B55" s="67" t="s">
         <v>63</v>
       </c>
@@ -28479,7 +28509,7 @@
       <c r="F55" s="66"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="125"/>
+      <c r="A56" s="124"/>
       <c r="B56" s="67" t="s">
         <v>64</v>
       </c>
@@ -28489,7 +28519,7 @@
       <c r="F56" s="66"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="125"/>
+      <c r="A57" s="124"/>
       <c r="B57" s="67" t="s">
         <v>65</v>
       </c>
@@ -28499,7 +28529,7 @@
       <c r="F57" s="66"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="125"/>
+      <c r="A58" s="124"/>
       <c r="B58" s="67" t="s">
         <v>66</v>
       </c>
@@ -28509,7 +28539,7 @@
       <c r="F58" s="66"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="125"/>
+      <c r="A59" s="124"/>
       <c r="B59" s="67" t="s">
         <v>67</v>
       </c>
@@ -28519,7 +28549,7 @@
       <c r="F59" s="66"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="125"/>
+      <c r="A60" s="124"/>
       <c r="B60" s="67" t="s">
         <v>68</v>
       </c>
@@ -28529,7 +28559,7 @@
       <c r="F60" s="66"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="125"/>
+      <c r="A61" s="124"/>
       <c r="B61" s="67" t="s">
         <v>69</v>
       </c>
@@ -28539,7 +28569,7 @@
       <c r="F61" s="66"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="125"/>
+      <c r="A62" s="124"/>
       <c r="B62" s="67" t="s">
         <v>70</v>
       </c>
@@ -28549,7 +28579,7 @@
       <c r="F62" s="66"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="125"/>
+      <c r="A63" s="124"/>
       <c r="B63" s="67" t="s">
         <v>31</v>
       </c>
@@ -28559,7 +28589,7 @@
       <c r="F63" s="66"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="125"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="67" t="s">
         <v>72</v>
       </c>
@@ -28569,7 +28599,7 @@
       <c r="F64" s="66"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="125"/>
+      <c r="A65" s="124"/>
       <c r="B65" s="67" t="s">
         <v>73</v>
       </c>
@@ -28579,7 +28609,7 @@
       <c r="F65" s="66"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="125"/>
+      <c r="A66" s="124"/>
       <c r="B66" s="67" t="s">
         <v>74</v>
       </c>
@@ -28589,7 +28619,7 @@
       <c r="F66" s="66"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="125"/>
+      <c r="A67" s="124"/>
       <c r="B67" s="67" t="s">
         <v>75</v>
       </c>
@@ -28599,7 +28629,7 @@
       <c r="F67" s="66"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="125"/>
+      <c r="A68" s="124"/>
       <c r="B68" s="68" t="s">
         <v>76</v>
       </c>
@@ -28609,7 +28639,7 @@
       <c r="F68" s="66"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="125"/>
+      <c r="A69" s="124"/>
       <c r="B69" s="68" t="s">
         <v>77</v>
       </c>
@@ -28619,7 +28649,7 @@
       <c r="F69" s="66"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="125"/>
+      <c r="A70" s="124"/>
       <c r="B70" s="68" t="s">
         <v>78</v>
       </c>
@@ -28629,7 +28659,7 @@
       <c r="F70" s="66"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="125"/>
+      <c r="A71" s="124"/>
       <c r="B71" s="68" t="s">
         <v>79</v>
       </c>
@@ -28639,7 +28669,7 @@
       <c r="F71" s="66"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="125"/>
+      <c r="A72" s="124"/>
       <c r="B72" s="68" t="s">
         <v>80</v>
       </c>
@@ -28649,7 +28679,7 @@
       <c r="F72" s="66"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="125"/>
+      <c r="A73" s="124"/>
       <c r="B73" s="68" t="s">
         <v>81</v>
       </c>
@@ -28659,7 +28689,7 @@
       <c r="F73" s="66"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="125"/>
+      <c r="A74" s="124"/>
       <c r="B74" s="68" t="s">
         <v>82</v>
       </c>
@@ -28669,7 +28699,7 @@
       <c r="F74" s="66"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="125"/>
+      <c r="A75" s="124"/>
       <c r="B75" s="68" t="s">
         <v>83</v>
       </c>
@@ -28679,7 +28709,7 @@
       <c r="F75" s="66"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="125"/>
+      <c r="A76" s="124"/>
       <c r="B76" s="68" t="s">
         <v>84</v>
       </c>
@@ -28689,7 +28719,7 @@
       <c r="F76" s="66"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="125"/>
+      <c r="A77" s="124"/>
       <c r="B77" s="68" t="s">
         <v>85</v>
       </c>
@@ -28699,7 +28729,7 @@
       <c r="F77" s="66"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="125"/>
+      <c r="A78" s="124"/>
       <c r="B78" s="68" t="s">
         <v>86</v>
       </c>
@@ -28709,7 +28739,7 @@
       <c r="F78" s="66"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="125"/>
+      <c r="A79" s="124"/>
       <c r="B79" s="68" t="s">
         <v>87</v>
       </c>
@@ -28719,7 +28749,7 @@
       <c r="F79" s="66"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="125"/>
+      <c r="A80" s="124"/>
       <c r="B80" s="68" t="s">
         <v>202</v>
       </c>
@@ -28729,7 +28759,7 @@
       <c r="F80" s="66"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="125"/>
+      <c r="A81" s="124"/>
       <c r="B81" s="68" t="s">
         <v>89</v>
       </c>
@@ -28739,7 +28769,7 @@
       <c r="F81" s="66"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="125"/>
+      <c r="A82" s="124"/>
       <c r="B82" s="68" t="s">
         <v>90</v>
       </c>
@@ -28749,7 +28779,7 @@
       <c r="F82" s="66"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="125"/>
+      <c r="A83" s="124"/>
       <c r="B83" s="68" t="s">
         <v>91</v>
       </c>
@@ -28759,7 +28789,7 @@
       <c r="F83" s="66"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="125"/>
+      <c r="A84" s="124"/>
       <c r="B84" s="68" t="s">
         <v>92</v>
       </c>
@@ -28769,7 +28799,7 @@
       <c r="F84" s="66"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="125"/>
+      <c r="A85" s="124"/>
       <c r="B85" s="68" t="s">
         <v>93</v>
       </c>
@@ -28779,7 +28809,7 @@
       <c r="F85" s="66"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="125"/>
+      <c r="A86" s="124"/>
       <c r="B86" s="68" t="s">
         <v>94</v>
       </c>
@@ -28789,7 +28819,7 @@
       <c r="F86" s="66"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="125"/>
+      <c r="A87" s="124"/>
       <c r="B87" s="68" t="s">
         <v>95</v>
       </c>
@@ -28799,7 +28829,7 @@
       <c r="F87" s="66"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="125"/>
+      <c r="A88" s="124"/>
       <c r="B88" s="68" t="s">
         <v>96</v>
       </c>
@@ -28809,7 +28839,7 @@
       <c r="F88" s="66"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="125"/>
+      <c r="A89" s="124"/>
       <c r="B89" s="68" t="s">
         <v>97</v>
       </c>
@@ -28819,7 +28849,7 @@
       <c r="F89" s="66"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="125"/>
+      <c r="A90" s="124"/>
       <c r="B90" s="68" t="s">
         <v>98</v>
       </c>
@@ -28829,7 +28859,7 @@
       <c r="F90" s="66"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="125"/>
+      <c r="A91" s="124"/>
       <c r="B91" s="68" t="s">
         <v>99</v>
       </c>
@@ -28839,7 +28869,7 @@
       <c r="F91" s="66"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="125"/>
+      <c r="A92" s="124"/>
       <c r="B92" s="68" t="s">
         <v>100</v>
       </c>
@@ -28849,7 +28879,7 @@
       <c r="F92" s="66"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="125"/>
+      <c r="A93" s="124"/>
       <c r="B93" s="68" t="s">
         <v>101</v>
       </c>
@@ -28859,7 +28889,7 @@
       <c r="F93" s="66"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="125"/>
+      <c r="A94" s="124"/>
       <c r="B94" s="68" t="s">
         <v>102</v>
       </c>
@@ -28869,7 +28899,7 @@
       <c r="F94" s="66"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="125"/>
+      <c r="A95" s="124"/>
       <c r="B95" s="68" t="s">
         <v>103</v>
       </c>
@@ -28879,7 +28909,7 @@
       <c r="F95" s="66"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="125"/>
+      <c r="A96" s="124"/>
       <c r="B96" s="68" t="s">
         <v>104</v>
       </c>
@@ -28889,7 +28919,7 @@
       <c r="F96" s="66"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="125"/>
+      <c r="A97" s="124"/>
       <c r="B97" s="68" t="s">
         <v>105</v>
       </c>
@@ -28899,7 +28929,7 @@
       <c r="F97" s="66"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="125"/>
+      <c r="A98" s="124"/>
       <c r="B98" s="68" t="s">
         <v>106</v>
       </c>
@@ -28909,7 +28939,7 @@
       <c r="F98" s="66"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="125"/>
+      <c r="A99" s="124"/>
       <c r="B99" s="68" t="s">
         <v>107</v>
       </c>
@@ -28919,7 +28949,7 @@
       <c r="F99" s="66"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="125"/>
+      <c r="A100" s="124"/>
       <c r="B100" s="68" t="s">
         <v>108</v>
       </c>
@@ -28929,7 +28959,7 @@
       <c r="F100" s="66"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="125"/>
+      <c r="A101" s="124"/>
       <c r="B101" s="68" t="s">
         <v>109</v>
       </c>
@@ -28939,7 +28969,7 @@
       <c r="F101" s="66"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="125"/>
+      <c r="A102" s="124"/>
       <c r="B102" s="68" t="s">
         <v>110</v>
       </c>
@@ -28949,7 +28979,7 @@
       <c r="F102" s="66"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="125"/>
+      <c r="A103" s="124"/>
       <c r="B103" s="68" t="s">
         <v>111</v>
       </c>
@@ -28959,7 +28989,7 @@
       <c r="F103" s="66"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="125"/>
+      <c r="A104" s="124"/>
       <c r="B104" s="68" t="s">
         <v>112</v>
       </c>
@@ -28969,7 +28999,7 @@
       <c r="F104" s="66"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="125"/>
+      <c r="A105" s="124"/>
       <c r="B105" s="68" t="s">
         <v>113</v>
       </c>
@@ -28979,7 +29009,7 @@
       <c r="F105" s="66"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="125"/>
+      <c r="A106" s="124"/>
       <c r="B106" s="68" t="s">
         <v>114</v>
       </c>
@@ -28989,7 +29019,7 @@
       <c r="F106" s="66"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="125"/>
+      <c r="A107" s="124"/>
       <c r="B107" s="68" t="s">
         <v>115</v>
       </c>
@@ -28999,7 +29029,7 @@
       <c r="F107" s="66"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="125"/>
+      <c r="A108" s="124"/>
       <c r="B108" s="68" t="s">
         <v>116</v>
       </c>
@@ -29009,7 +29039,7 @@
       <c r="F108" s="66"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="125"/>
+      <c r="A109" s="124"/>
       <c r="B109" s="68" t="s">
         <v>117</v>
       </c>
@@ -29019,7 +29049,7 @@
       <c r="F109" s="66"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="125"/>
+      <c r="A110" s="124"/>
       <c r="B110" s="68" t="s">
         <v>118</v>
       </c>
@@ -29029,7 +29059,7 @@
       <c r="F110" s="66"/>
     </row>
     <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="125"/>
+      <c r="A111" s="124"/>
       <c r="B111" s="68" t="s">
         <v>119</v>
       </c>
@@ -29039,7 +29069,7 @@
       <c r="F111" s="66"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="125"/>
+      <c r="A112" s="124"/>
       <c r="B112" s="68" t="s">
         <v>120</v>
       </c>
@@ -29049,7 +29079,7 @@
       <c r="F112" s="66"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="125"/>
+      <c r="A113" s="124"/>
       <c r="B113" s="68" t="s">
         <v>121</v>
       </c>
@@ -29059,7 +29089,7 @@
       <c r="F113" s="66"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="125"/>
+      <c r="A114" s="124"/>
       <c r="B114" s="68" t="s">
         <v>122</v>
       </c>
@@ -29069,7 +29099,7 @@
       <c r="F114" s="66"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="125"/>
+      <c r="A115" s="124"/>
       <c r="B115" s="68" t="s">
         <v>205</v>
       </c>
@@ -29079,7 +29109,7 @@
       <c r="F115" s="66"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="125"/>
+      <c r="A116" s="124"/>
       <c r="B116" s="68" t="s">
         <v>124</v>
       </c>
@@ -29089,7 +29119,7 @@
       <c r="F116" s="66"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="125"/>
+      <c r="A117" s="124"/>
       <c r="B117" s="68" t="s">
         <v>125</v>
       </c>
@@ -29099,7 +29129,7 @@
       <c r="F117" s="66"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="125"/>
+      <c r="A118" s="124"/>
       <c r="B118" s="68" t="s">
         <v>126</v>
       </c>
@@ -29109,7 +29139,7 @@
       <c r="F118" s="66"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="125"/>
+      <c r="A119" s="124"/>
       <c r="B119" s="68" t="s">
         <v>127</v>
       </c>
@@ -29119,7 +29149,7 @@
       <c r="F119" s="66"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="125"/>
+      <c r="A120" s="124"/>
       <c r="B120" s="68" t="s">
         <v>128</v>
       </c>
@@ -29129,7 +29159,7 @@
       <c r="F120" s="66"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="125"/>
+      <c r="A121" s="124"/>
       <c r="B121" s="68" t="s">
         <v>129</v>
       </c>
@@ -29139,7 +29169,7 @@
       <c r="F121" s="66"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="125"/>
+      <c r="A122" s="124"/>
       <c r="B122" s="68" t="s">
         <v>206</v>
       </c>
@@ -29149,7 +29179,7 @@
       <c r="F122" s="66"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="125"/>
+      <c r="A123" s="124"/>
       <c r="B123" s="68" t="s">
         <v>131</v>
       </c>
@@ -29160,14 +29190,14 @@
     </row>
     <row r="124" spans="1:6" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A124" s="66"/>
-      <c r="B124" s="72"/>
+      <c r="B124" s="71"/>
       <c r="C124" s="66"/>
       <c r="D124" s="66"/>
       <c r="E124" s="66"/>
       <c r="F124" s="66"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A125" s="126" t="s">
+      <c r="A125" s="125" t="s">
         <v>177</v>
       </c>
       <c r="B125" s="67" t="s">
@@ -29179,7 +29209,7 @@
       <c r="F125" s="66"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="126"/>
+      <c r="A126" s="125"/>
       <c r="B126" s="67" t="s">
         <v>136</v>
       </c>
@@ -29189,7 +29219,7 @@
       <c r="F126" s="66"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="126"/>
+      <c r="A127" s="125"/>
       <c r="B127" s="67" t="s">
         <v>137</v>
       </c>
@@ -29199,7 +29229,7 @@
       <c r="F127" s="66"/>
     </row>
     <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="126"/>
+      <c r="A128" s="125"/>
       <c r="B128" s="67" t="s">
         <v>138</v>
       </c>
@@ -29209,7 +29239,7 @@
       <c r="F128" s="66"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A129" s="126"/>
+      <c r="A129" s="125"/>
       <c r="B129" s="67" t="s">
         <v>139</v>
       </c>
@@ -29219,7 +29249,7 @@
       <c r="F129" s="66"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A130" s="126"/>
+      <c r="A130" s="125"/>
       <c r="B130" s="67" t="s">
         <v>140</v>
       </c>
@@ -29229,7 +29259,7 @@
       <c r="F130" s="66"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A131" s="126"/>
+      <c r="A131" s="125"/>
       <c r="B131" s="67" t="s">
         <v>141</v>
       </c>
@@ -29239,7 +29269,7 @@
       <c r="F131" s="66"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A132" s="126"/>
+      <c r="A132" s="125"/>
       <c r="B132" s="67" t="s">
         <v>142</v>
       </c>
@@ -29249,7 +29279,7 @@
       <c r="F132" s="66"/>
     </row>
     <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A133" s="126"/>
+      <c r="A133" s="125"/>
       <c r="B133" s="67" t="s">
         <v>143</v>
       </c>
@@ -29259,7 +29289,7 @@
       <c r="F133" s="66"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A134" s="126"/>
+      <c r="A134" s="125"/>
       <c r="B134" s="67" t="s">
         <v>145</v>
       </c>
@@ -29269,7 +29299,7 @@
       <c r="F134" s="66"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A135" s="126"/>
+      <c r="A135" s="125"/>
       <c r="B135" s="67" t="s">
         <v>146</v>
       </c>
@@ -29279,7 +29309,7 @@
       <c r="F135" s="66"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A136" s="126"/>
+      <c r="A136" s="125"/>
       <c r="B136" s="67" t="s">
         <v>147</v>
       </c>
@@ -29289,7 +29319,7 @@
       <c r="F136" s="66"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A137" s="126"/>
+      <c r="A137" s="125"/>
       <c r="B137" s="67" t="s">
         <v>148</v>
       </c>
@@ -29299,7 +29329,7 @@
       <c r="F137" s="66"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A138" s="126"/>
+      <c r="A138" s="125"/>
       <c r="B138" s="67" t="s">
         <v>149</v>
       </c>
@@ -29309,7 +29339,7 @@
       <c r="F138" s="66"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A139" s="126"/>
+      <c r="A139" s="125"/>
       <c r="B139" s="67" t="s">
         <v>150</v>
       </c>
@@ -29319,7 +29349,7 @@
       <c r="F139" s="66"/>
     </row>
     <row r="140" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A140" s="126"/>
+      <c r="A140" s="125"/>
       <c r="B140" s="67" t="s">
         <v>151</v>
       </c>
@@ -29329,7 +29359,7 @@
       <c r="F140" s="66"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A141" s="126"/>
+      <c r="A141" s="125"/>
       <c r="B141" s="67" t="s">
         <v>152</v>
       </c>
@@ -29339,7 +29369,7 @@
       <c r="F141" s="66"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A142" s="126"/>
+      <c r="A142" s="125"/>
       <c r="B142" s="67" t="s">
         <v>153</v>
       </c>
@@ -29349,7 +29379,7 @@
       <c r="F142" s="66"/>
     </row>
     <row r="143" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A143" s="126"/>
+      <c r="A143" s="125"/>
       <c r="B143" s="67" t="s">
         <v>154</v>
       </c>
@@ -29359,7 +29389,7 @@
       <c r="F143" s="66"/>
     </row>
     <row r="144" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A144" s="126"/>
+      <c r="A144" s="125"/>
       <c r="B144" s="67" t="s">
         <v>155</v>
       </c>
@@ -29369,7 +29399,7 @@
       <c r="F144" s="66"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A145" s="126"/>
+      <c r="A145" s="125"/>
       <c r="B145" s="67" t="s">
         <v>156</v>
       </c>
@@ -29379,7 +29409,7 @@
       <c r="F145" s="66"/>
     </row>
     <row r="146" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A146" s="126"/>
+      <c r="A146" s="125"/>
       <c r="B146" s="67" t="s">
         <v>157</v>
       </c>
@@ -29389,7 +29419,7 @@
       <c r="F146" s="66"/>
     </row>
     <row r="147" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A147" s="126"/>
+      <c r="A147" s="125"/>
       <c r="B147" s="67" t="s">
         <v>158</v>
       </c>
@@ -29399,7 +29429,7 @@
       <c r="F147" s="66"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A148" s="126"/>
+      <c r="A148" s="125"/>
       <c r="B148" s="67" t="s">
         <v>159</v>
       </c>
@@ -29409,7 +29439,7 @@
       <c r="F148" s="66"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A149" s="126"/>
+      <c r="A149" s="125"/>
       <c r="B149" s="67" t="s">
         <v>160</v>
       </c>
@@ -29419,7 +29449,7 @@
       <c r="F149" s="66"/>
     </row>
     <row r="150" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A150" s="126"/>
+      <c r="A150" s="125"/>
       <c r="B150" s="67" t="s">
         <v>208</v>
       </c>
@@ -29429,7 +29459,7 @@
       <c r="F150" s="66"/>
     </row>
     <row r="151" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A151" s="126"/>
+      <c r="A151" s="125"/>
       <c r="B151" s="67" t="s">
         <v>209</v>
       </c>
@@ -29439,7 +29469,7 @@
       <c r="F151" s="66"/>
     </row>
     <row r="152" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A152" s="126"/>
+      <c r="A152" s="125"/>
       <c r="B152" s="67" t="s">
         <v>210</v>
       </c>
@@ -29449,7 +29479,7 @@
       <c r="F152" s="66"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A153" s="126"/>
+      <c r="A153" s="125"/>
       <c r="B153" s="67" t="s">
         <v>211</v>
       </c>
@@ -29459,7 +29489,7 @@
       <c r="F153" s="66"/>
     </row>
     <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A154" s="126"/>
+      <c r="A154" s="125"/>
       <c r="B154" s="67" t="s">
         <v>212</v>
       </c>
@@ -29469,7 +29499,7 @@
       <c r="F154" s="66"/>
     </row>
     <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A155" s="126"/>
+      <c r="A155" s="125"/>
       <c r="B155" s="67" t="s">
         <v>188</v>
       </c>
@@ -29479,7 +29509,7 @@
       <c r="F155" s="66"/>
     </row>
     <row r="156" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A156" s="126"/>
+      <c r="A156" s="125"/>
       <c r="B156" s="68" t="s">
         <v>189</v>
       </c>
@@ -29489,7 +29519,7 @@
       <c r="F156" s="66"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A157" s="126"/>
+      <c r="A157" s="125"/>
       <c r="B157" s="68" t="s">
         <v>190</v>
       </c>
@@ -29499,7 +29529,7 @@
       <c r="F157" s="66"/>
     </row>
     <row r="158" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A158" s="126"/>
+      <c r="A158" s="125"/>
       <c r="B158" s="68" t="s">
         <v>191</v>
       </c>
@@ -29509,7 +29539,7 @@
       <c r="F158" s="66"/>
     </row>
     <row r="159" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A159" s="126"/>
+      <c r="A159" s="125"/>
       <c r="B159" s="68" t="s">
         <v>192</v>
       </c>
@@ -29536,7 +29566,10 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -29547,1743 +29580,1755 @@
     <col min="6" max="6" width="45.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A1" s="142" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-    </row>
-    <row r="3" spans="1:6" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A3" s="131"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="69" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="144"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="147"/>
+    </row>
+    <row r="3" spans="1:6" s="151" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="150" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="150" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="150" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="150" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="124" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="72" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="125"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="125"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="72"/>
+      <c r="F6" s="72" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="125"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="125"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73" t="s">
+      <c r="E8" s="72"/>
+      <c r="F8" s="72" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="125"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73" t="s">
+      <c r="E9" s="72"/>
+      <c r="F9" s="72" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="125"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="137" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="125"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="125"/>
+      <c r="A12" s="124"/>
       <c r="B12" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73" t="s">
+      <c r="E12" s="72"/>
+      <c r="F12" s="72" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="125"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="125"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73" t="s">
+      <c r="E14" s="72"/>
+      <c r="F14" s="72" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="125"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73" t="s">
+      <c r="E15" s="72"/>
+      <c r="F15" s="72" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="125"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73" t="s">
+      <c r="E16" s="72"/>
+      <c r="F16" s="72" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="125"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73" t="s">
+      <c r="E17" s="72"/>
+      <c r="F17" s="72" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="125"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="125"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="125"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="125"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="125"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="125"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="125"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="125"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="125"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="125"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="125"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="125"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
     </row>
     <row r="30" spans="1:6" ht="17.45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="125"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="67" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="E30" s="73"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="61" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="125"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="125"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="125"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="125"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="125"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="125"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="125"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="125"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="125"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="125"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="125"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="125"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="125"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="125"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="125"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="125"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="125"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="125"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="125"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="125"/>
+      <c r="A50" s="124"/>
       <c r="B50" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="125"/>
+      <c r="A51" s="124"/>
       <c r="B51" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="125"/>
+      <c r="A52" s="124"/>
       <c r="B52" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="125"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="125"/>
+      <c r="A54" s="124"/>
       <c r="B54" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="125"/>
+      <c r="A55" s="124"/>
       <c r="B55" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="125"/>
+      <c r="A56" s="124"/>
       <c r="B56" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="125"/>
+      <c r="A57" s="124"/>
       <c r="B57" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="125"/>
+      <c r="A58" s="124"/>
       <c r="B58" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="125"/>
+      <c r="A59" s="124"/>
       <c r="B59" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="125"/>
+      <c r="A60" s="124"/>
       <c r="B60" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="125"/>
+      <c r="A61" s="124"/>
       <c r="B61" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="125"/>
+      <c r="A62" s="124"/>
       <c r="B62" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="125"/>
+      <c r="A63" s="124"/>
       <c r="B63" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="125"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="125"/>
+      <c r="A65" s="124"/>
       <c r="B65" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="125"/>
+      <c r="A66" s="124"/>
       <c r="B66" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="125"/>
+      <c r="A67" s="124"/>
       <c r="B67" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="125"/>
+      <c r="A68" s="124"/>
       <c r="B68" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="125"/>
+      <c r="A69" s="124"/>
       <c r="B69" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="125"/>
+      <c r="A70" s="124"/>
       <c r="B70" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="125"/>
+      <c r="A71" s="124"/>
       <c r="B71" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
     </row>
     <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="125"/>
+      <c r="A72" s="124"/>
       <c r="B72" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="125"/>
+      <c r="A73" s="124"/>
       <c r="B73" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="73"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="125"/>
+      <c r="A74" s="124"/>
       <c r="B74" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
     </row>
     <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="125"/>
+      <c r="A75" s="124"/>
       <c r="B75" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="73"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="125"/>
+      <c r="A76" s="124"/>
       <c r="B76" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="73"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="125"/>
+      <c r="A77" s="124"/>
       <c r="B77" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="73"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="125"/>
+      <c r="A78" s="124"/>
       <c r="B78" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="73"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="125"/>
+      <c r="A79" s="124"/>
       <c r="B79" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="73"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="125"/>
+      <c r="A80" s="124"/>
       <c r="B80" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="125"/>
+      <c r="A81" s="124"/>
       <c r="B81" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="73"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="125"/>
+      <c r="A82" s="124"/>
       <c r="B82" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="73"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="125"/>
+      <c r="A83" s="124"/>
       <c r="B83" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
     </row>
     <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="125"/>
+      <c r="A84" s="124"/>
       <c r="B84" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="125"/>
+      <c r="A85" s="124"/>
       <c r="B85" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="125"/>
+      <c r="A86" s="124"/>
       <c r="B86" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="73"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="125"/>
+      <c r="A87" s="124"/>
       <c r="B87" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
     </row>
     <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="125"/>
+      <c r="A88" s="124"/>
       <c r="B88" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="73"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="125"/>
+      <c r="A89" s="124"/>
       <c r="B89" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="125"/>
+      <c r="A90" s="124"/>
       <c r="B90" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="73"/>
-      <c r="D90" s="73"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="125"/>
+      <c r="A91" s="124"/>
       <c r="B91" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="73"/>
-      <c r="D91" s="73"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="73"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="125"/>
+      <c r="A92" s="124"/>
       <c r="B92" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="73"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="125"/>
+      <c r="A93" s="124"/>
       <c r="B93" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="73" t="s">
+      <c r="C93" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="D93" s="73" t="s">
+      <c r="D93" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="E93" s="73"/>
-      <c r="F93" s="73"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="125"/>
+      <c r="A94" s="124"/>
       <c r="B94" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="73" t="s">
+      <c r="C94" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="D94" s="73" t="s">
+      <c r="D94" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="125"/>
+      <c r="A95" s="124"/>
       <c r="B95" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="73" t="s">
+      <c r="C95" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="D95" s="73" t="s">
+      <c r="D95" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="125"/>
+      <c r="A96" s="124"/>
       <c r="B96" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="73" t="s">
+      <c r="C96" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="D96" s="73" t="s">
+      <c r="D96" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="E96" s="73"/>
-      <c r="F96" s="73"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="125"/>
+      <c r="A97" s="124"/>
       <c r="B97" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="73" t="s">
+      <c r="C97" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="D97" s="73" t="s">
+      <c r="D97" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="E97" s="73"/>
-      <c r="F97" s="73"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="125"/>
+      <c r="A98" s="124"/>
       <c r="B98" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="73" t="s">
+      <c r="C98" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="D98" s="73" t="s">
+      <c r="D98" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="125"/>
+      <c r="A99" s="124"/>
       <c r="B99" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="73" t="s">
+      <c r="C99" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="73" t="s">
+      <c r="D99" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="125"/>
+      <c r="A100" s="124"/>
       <c r="B100" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="73" t="s">
+      <c r="C100" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="73" t="s">
+      <c r="D100" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="E100" s="73"/>
-      <c r="F100" s="73"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="125"/>
+      <c r="A101" s="124"/>
       <c r="B101" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="73"/>
-      <c r="D101" s="73"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="125"/>
+      <c r="A102" s="124"/>
       <c r="B102" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="73"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="125"/>
+      <c r="A103" s="124"/>
       <c r="B103" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="73"/>
-      <c r="D103" s="73"/>
-      <c r="E103" s="73"/>
-      <c r="F103" s="73"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="125"/>
+      <c r="A104" s="124"/>
       <c r="B104" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="73"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="73"/>
-      <c r="F104" s="73"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="125"/>
+      <c r="A105" s="124"/>
       <c r="B105" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="73" t="s">
+      <c r="C105" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="D105" s="73" t="s">
+      <c r="D105" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="E105" s="73"/>
-      <c r="F105" s="73"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="125"/>
+      <c r="A106" s="124"/>
       <c r="B106" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="73"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
+      <c r="C106" s="72"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="125"/>
+      <c r="A107" s="124"/>
       <c r="B107" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="73"/>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
+      <c r="C107" s="72"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="125"/>
+      <c r="A108" s="124"/>
       <c r="B108" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="73"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="73"/>
+      <c r="C108" s="72"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="72"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="125"/>
+      <c r="A109" s="124"/>
       <c r="B109" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="73"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="125"/>
+      <c r="A110" s="124"/>
       <c r="B110" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
-      <c r="F110" s="73"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
     </row>
     <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="125"/>
+      <c r="A111" s="124"/>
       <c r="B111" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="73"/>
-      <c r="D111" s="73"/>
-      <c r="E111" s="73"/>
-      <c r="F111" s="73"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="125"/>
+      <c r="A112" s="124"/>
       <c r="B112" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="73"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="F112" s="73"/>
+      <c r="C112" s="72"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="125"/>
+      <c r="A113" s="124"/>
       <c r="B113" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="73"/>
-      <c r="D113" s="73"/>
-      <c r="E113" s="73"/>
-      <c r="F113" s="73"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="125"/>
+      <c r="A114" s="124"/>
       <c r="B114" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="73"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="73"/>
-      <c r="F114" s="73"/>
+      <c r="C114" s="72"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="125"/>
+      <c r="A115" s="124"/>
       <c r="B115" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="73"/>
-      <c r="D115" s="73"/>
-      <c r="E115" s="73"/>
-      <c r="F115" s="73"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="125"/>
+      <c r="A116" s="124"/>
       <c r="B116" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="73"/>
+      <c r="C116" s="72"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="125"/>
+      <c r="A117" s="124"/>
       <c r="B117" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="C117" s="73"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="73"/>
-      <c r="F117" s="73"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="125"/>
+      <c r="A118" s="124"/>
       <c r="B118" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="73"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="73"/>
-      <c r="F118" s="73"/>
+      <c r="C118" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="125"/>
+      <c r="A119" s="124"/>
       <c r="B119" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="C119" s="73"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
+      <c r="C119" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="125"/>
+      <c r="A120" s="124"/>
       <c r="B120" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
+      <c r="C120" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="125"/>
+      <c r="A121" s="124"/>
       <c r="B121" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="C121" s="73"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="73"/>
-      <c r="F121" s="73"/>
+      <c r="C121" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="D121" s="72"/>
+      <c r="E121" s="72"/>
+      <c r="F121" s="72"/>
     </row>
     <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="125"/>
+      <c r="A122" s="124"/>
       <c r="B122" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="C122" s="73"/>
-      <c r="D122" s="73"/>
-      <c r="E122" s="73"/>
-      <c r="F122" s="73"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="125"/>
+      <c r="A123" s="124"/>
       <c r="B123" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="C123" s="73"/>
-      <c r="D123" s="73"/>
-      <c r="E123" s="73"/>
-      <c r="F123" s="73"/>
+        <v>251</v>
+      </c>
+      <c r="C123" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="125"/>
+      <c r="A124" s="124"/>
       <c r="B124" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="C124" s="73"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="73"/>
-      <c r="F124" s="73"/>
+      <c r="C124" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="D124" s="72"/>
+      <c r="E124" s="72"/>
+      <c r="F124" s="72"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="B125" s="21"/>
-      <c r="C125" s="73"/>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="73"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="72"/>
+      <c r="E125" s="72"/>
+      <c r="F125" s="72"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="129" t="s">
+      <c r="A126" s="140" t="s">
         <v>177</v>
       </c>
       <c r="B126" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="133" t="s">
+      <c r="C126" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="D126" s="134"/>
-      <c r="E126" s="134"/>
-      <c r="F126" s="134"/>
+      <c r="D126" s="129"/>
+      <c r="E126" s="129"/>
+      <c r="F126" s="129"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="130"/>
+      <c r="A127" s="141"/>
       <c r="B127" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="135"/>
-      <c r="D127" s="136"/>
-      <c r="E127" s="136"/>
-      <c r="F127" s="136"/>
+      <c r="C127" s="131"/>
+      <c r="D127" s="132"/>
+      <c r="E127" s="132"/>
+      <c r="F127" s="132"/>
     </row>
     <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="130"/>
+      <c r="A128" s="141"/>
       <c r="B128" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="137"/>
-      <c r="D128" s="138"/>
-      <c r="E128" s="138"/>
-      <c r="F128" s="138"/>
+      <c r="C128" s="134"/>
+      <c r="D128" s="135"/>
+      <c r="E128" s="135"/>
+      <c r="F128" s="135"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A129" s="130"/>
+      <c r="A129" s="141"/>
       <c r="B129" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="73"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="73"/>
-      <c r="F129" s="73"/>
+      <c r="C129" s="72"/>
+      <c r="D129" s="72"/>
+      <c r="E129" s="72"/>
+      <c r="F129" s="72"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A130" s="130"/>
+      <c r="A130" s="141"/>
       <c r="B130" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="73"/>
-      <c r="D130" s="73"/>
-      <c r="E130" s="73"/>
-      <c r="F130" s="73"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="72"/>
+      <c r="E130" s="72"/>
+      <c r="F130" s="72"/>
     </row>
     <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A131" s="130"/>
+      <c r="A131" s="141"/>
       <c r="B131" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="139" t="s">
+      <c r="C131" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="D131" s="140"/>
-      <c r="E131" s="140"/>
-      <c r="F131" s="141"/>
+      <c r="D131" s="138"/>
+      <c r="E131" s="138"/>
+      <c r="F131" s="139"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A132" s="130"/>
+      <c r="A132" s="141"/>
       <c r="B132" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="73"/>
-      <c r="D132" s="73"/>
-      <c r="E132" s="73"/>
-      <c r="F132" s="73"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="72"/>
+      <c r="E132" s="72"/>
+      <c r="F132" s="72"/>
     </row>
     <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A133" s="130"/>
+      <c r="A133" s="141"/>
       <c r="B133" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="C133" s="73"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="73"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A134" s="130"/>
+      <c r="A134" s="141"/>
       <c r="B134" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="73"/>
-      <c r="D134" s="73"/>
-      <c r="E134" s="73"/>
-      <c r="F134" s="73"/>
+      <c r="C134" s="72"/>
+      <c r="D134" s="72"/>
+      <c r="E134" s="72"/>
+      <c r="F134" s="72"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A135" s="130"/>
+      <c r="A135" s="141"/>
       <c r="B135" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="133" t="s">
+      <c r="C135" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="D135" s="134"/>
-      <c r="E135" s="134"/>
-      <c r="F135" s="142"/>
+      <c r="D135" s="129"/>
+      <c r="E135" s="129"/>
+      <c r="F135" s="130"/>
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A136" s="130"/>
+      <c r="A136" s="141"/>
       <c r="B136" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="135"/>
-      <c r="D136" s="136"/>
-      <c r="E136" s="136"/>
-      <c r="F136" s="143"/>
+      <c r="C136" s="131"/>
+      <c r="D136" s="132"/>
+      <c r="E136" s="132"/>
+      <c r="F136" s="133"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A137" s="130"/>
+      <c r="A137" s="141"/>
       <c r="B137" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C137" s="137"/>
-      <c r="D137" s="138"/>
-      <c r="E137" s="138"/>
-      <c r="F137" s="144"/>
+      <c r="C137" s="134"/>
+      <c r="D137" s="135"/>
+      <c r="E137" s="135"/>
+      <c r="F137" s="136"/>
     </row>
     <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A138" s="130"/>
+      <c r="A138" s="141"/>
       <c r="B138" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="73"/>
-      <c r="D138" s="73"/>
-      <c r="E138" s="73"/>
-      <c r="F138" s="73"/>
+      <c r="C138" s="72"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
     </row>
     <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A139" s="130"/>
+      <c r="A139" s="141"/>
       <c r="B139" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="73"/>
-      <c r="D139" s="73"/>
-      <c r="E139" s="73"/>
-      <c r="F139" s="73"/>
+      <c r="C139" s="72"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="72"/>
+      <c r="F139" s="72"/>
     </row>
     <row r="140" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A140" s="130"/>
+      <c r="A140" s="141"/>
       <c r="B140" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="C140" s="73"/>
-      <c r="D140" s="73"/>
-      <c r="E140" s="73"/>
-      <c r="F140" s="73"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A141" s="130"/>
+      <c r="A141" s="141"/>
       <c r="B141" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C141" s="73"/>
-      <c r="D141" s="73"/>
-      <c r="E141" s="73"/>
-      <c r="F141" s="73"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A142" s="130"/>
+      <c r="A142" s="141"/>
       <c r="B142" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="C142" s="73"/>
-      <c r="D142" s="73"/>
-      <c r="E142" s="73"/>
-      <c r="F142" s="73"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="72"/>
     </row>
     <row r="143" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A143" s="130"/>
+      <c r="A143" s="141"/>
       <c r="B143" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C143" s="73"/>
-      <c r="D143" s="73"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="73"/>
+      <c r="C143" s="72"/>
+      <c r="D143" s="72"/>
+      <c r="E143" s="72"/>
+      <c r="F143" s="72"/>
     </row>
     <row r="144" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A144" s="130"/>
+      <c r="A144" s="141"/>
       <c r="B144" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="C144" s="73"/>
-      <c r="D144" s="73"/>
-      <c r="E144" s="73"/>
-      <c r="F144" s="73"/>
+      <c r="C144" s="72"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="72"/>
+      <c r="F144" s="72"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A145" s="130"/>
+      <c r="A145" s="141"/>
       <c r="B145" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="C145" s="73"/>
-      <c r="D145" s="73"/>
-      <c r="E145" s="73"/>
-      <c r="F145" s="73"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
     </row>
     <row r="146" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A146" s="130"/>
+      <c r="A146" s="141"/>
       <c r="B146" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C146" s="73"/>
-      <c r="D146" s="73"/>
-      <c r="E146" s="73"/>
-      <c r="F146" s="73"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
     </row>
     <row r="147" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A147" s="130"/>
+      <c r="A147" s="141"/>
       <c r="B147" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C147" s="73"/>
-      <c r="D147" s="73"/>
-      <c r="E147" s="73"/>
-      <c r="F147" s="73"/>
+      <c r="C147" s="72"/>
+      <c r="D147" s="72"/>
+      <c r="E147" s="72"/>
+      <c r="F147" s="72"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A148" s="130"/>
+      <c r="A148" s="141"/>
       <c r="B148" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="C148" s="73"/>
-      <c r="D148" s="73"/>
-      <c r="E148" s="73"/>
-      <c r="F148" s="73"/>
+      <c r="C148" s="72"/>
+      <c r="D148" s="72"/>
+      <c r="E148" s="72"/>
+      <c r="F148" s="72"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A149" s="130"/>
+      <c r="A149" s="141"/>
       <c r="B149" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C149" s="133" t="s">
+      <c r="C149" s="128" t="s">
         <v>243</v>
       </c>
-      <c r="D149" s="134"/>
-      <c r="E149" s="134"/>
-      <c r="F149" s="142"/>
+      <c r="D149" s="129"/>
+      <c r="E149" s="129"/>
+      <c r="F149" s="130"/>
     </row>
     <row r="150" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A150" s="130"/>
+      <c r="A150" s="141"/>
       <c r="B150" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="137"/>
-      <c r="D150" s="138"/>
-      <c r="E150" s="138"/>
-      <c r="F150" s="144"/>
+      <c r="C150" s="134"/>
+      <c r="D150" s="135"/>
+      <c r="E150" s="135"/>
+      <c r="F150" s="136"/>
     </row>
     <row r="151" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A151" s="130"/>
+      <c r="A151" s="141"/>
       <c r="B151" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="C151" s="73"/>
-      <c r="D151" s="73"/>
-      <c r="E151" s="73"/>
-      <c r="F151" s="73"/>
+      <c r="C151" s="72"/>
+      <c r="D151" s="72"/>
+      <c r="E151" s="72"/>
+      <c r="F151" s="72"/>
     </row>
     <row r="152" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A152" s="130"/>
+      <c r="A152" s="141"/>
       <c r="B152" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="C152" s="139" t="s">
+      <c r="C152" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="D152" s="140"/>
-      <c r="E152" s="140"/>
-      <c r="F152" s="141"/>
+      <c r="D152" s="138"/>
+      <c r="E152" s="138"/>
+      <c r="F152" s="139"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A153" s="130"/>
+      <c r="A153" s="141"/>
       <c r="B153" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="C153" s="73"/>
-      <c r="D153" s="73"/>
-      <c r="E153" s="73"/>
-      <c r="F153" s="73"/>
+      <c r="C153" s="72"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="72"/>
+      <c r="F153" s="72"/>
     </row>
     <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A154" s="130"/>
+      <c r="A154" s="141"/>
       <c r="B154" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="C154" s="73"/>
-      <c r="D154" s="73"/>
-      <c r="E154" s="73"/>
-      <c r="F154" s="73"/>
+      <c r="C154" s="72"/>
+      <c r="D154" s="72"/>
+      <c r="E154" s="72"/>
+      <c r="F154" s="72"/>
     </row>
     <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A155" s="130"/>
+      <c r="A155" s="141"/>
       <c r="B155" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C155" s="139" t="s">
+      <c r="C155" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="D155" s="140"/>
-      <c r="E155" s="140"/>
-      <c r="F155" s="141"/>
+      <c r="D155" s="138"/>
+      <c r="E155" s="138"/>
+      <c r="F155" s="139"/>
     </row>
     <row r="156" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A156" s="130"/>
+      <c r="A156" s="141"/>
       <c r="B156" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="C156" s="73"/>
-      <c r="D156" s="73"/>
-      <c r="E156" s="73"/>
-      <c r="F156" s="73"/>
+      <c r="C156" s="72"/>
+      <c r="D156" s="72"/>
+      <c r="E156" s="72"/>
+      <c r="F156" s="72"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A157" s="130"/>
+      <c r="A157" s="141"/>
       <c r="B157" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="C157" s="73"/>
-      <c r="D157" s="73"/>
-      <c r="E157" s="73"/>
-      <c r="F157" s="73"/>
+      <c r="C157" s="72"/>
+      <c r="D157" s="72"/>
+      <c r="E157" s="72"/>
+      <c r="F157" s="72"/>
     </row>
     <row r="158" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A158" s="130"/>
+      <c r="A158" s="141"/>
       <c r="B158" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="C158" s="73"/>
-      <c r="D158" s="73"/>
-      <c r="E158" s="73"/>
-      <c r="F158" s="73"/>
+      <c r="C158" s="72"/>
+      <c r="D158" s="72"/>
+      <c r="E158" s="72"/>
+      <c r="F158" s="72"/>
     </row>
     <row r="159" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A159" s="130"/>
+      <c r="A159" s="141"/>
       <c r="B159" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="73"/>
-      <c r="D159" s="73"/>
-      <c r="E159" s="73"/>
-      <c r="F159" s="73"/>
+      <c r="C159" s="72"/>
+      <c r="D159" s="72"/>
+      <c r="E159" s="72"/>
+      <c r="F159" s="72"/>
     </row>
     <row r="160" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A160" s="130"/>
+      <c r="A160" s="141"/>
       <c r="B160" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="73"/>
-      <c r="D160" s="73"/>
-      <c r="E160" s="73"/>
-      <c r="F160" s="73"/>
+      <c r="C160" s="72"/>
+      <c r="D160" s="72"/>
+      <c r="E160" s="72"/>
+      <c r="F160" s="72"/>
     </row>
     <row r="161" spans="3:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C161" s="73"/>
-      <c r="D161" s="73"/>
-      <c r="E161" s="73"/>
-      <c r="F161" s="73"/>
+      <c r="C161" s="72"/>
+      <c r="D161" s="72"/>
+      <c r="E161" s="72"/>
+      <c r="F161" s="72"/>
     </row>
     <row r="162" spans="3:6" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F2"/>
     <mergeCell ref="C135:F137"/>
     <mergeCell ref="C155:F155"/>
     <mergeCell ref="A4:A124"/>
     <mergeCell ref="A126:A160"/>
-    <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C126:F128"/>
